--- a/Reservar 2.xlsx
+++ b/Reservar 2.xlsx
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="D7" s="9" t="n">
-        <v>407.898</v>
+        <v>432.864620784</v>
       </c>
       <c r="E7" s="9">
         <f>D7-(D7*$I$4)</f>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D8" s="13" t="n">
-        <v>39.9</v>
+        <v>44.05282404768001</v>
       </c>
       <c r="E8" s="13">
         <f>D8-(D8*$I$4)</f>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="D9" s="13" t="n">
-        <v>58.46580311201308</v>
+        <v>59.63511917425334</v>
       </c>
       <c r="E9" s="13">
         <f>D9-(D9*$I$4)</f>
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D10" s="13" t="n">
-        <v>199.9</v>
+        <v>207.97596</v>
       </c>
       <c r="E10" s="13">
         <f>D10-(D10*$I$4)</f>
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="D22" s="13" t="n">
-        <v>42.5</v>
+        <v>61.91447483243144</v>
       </c>
       <c r="E22" s="13">
         <f>D22-(D22*$I$4)</f>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="D23" s="13" t="n">
-        <v>92.90000000000001</v>
+        <v>98.58622320000002</v>
       </c>
       <c r="E23" s="13">
         <f>D23-(D23*$I$4)</f>
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="D24" s="13" t="n">
-        <v>70.90000000000001</v>
+        <v>72.31800000000001</v>
       </c>
       <c r="E24" s="13">
         <f>D24-(D24*$I$4)</f>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="D25" s="13" t="n">
-        <v>91.40000000000001</v>
+        <v>93.22800000000001</v>
       </c>
       <c r="E25" s="13">
         <f>D25-(D25*$I$4)</f>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D26" s="13" t="n">
-        <v>142.9</v>
+        <v>145.758</v>
       </c>
       <c r="E26" s="13">
         <f>D26-(D26*$I$4)</f>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="D30" s="13" t="n">
-        <v>89.90000000000001</v>
+        <v>93.53196000000001</v>
       </c>
       <c r="E30" s="13">
         <f>D30-(D30*$I$4)</f>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D31" s="13" t="n">
-        <v>29.9</v>
+        <v>32.364721584</v>
       </c>
       <c r="E31" s="13">
         <f>D31-(D31*$I$4)</f>
